--- a/Greyform-linux/Python_Application/Pin Allocation BOM for PBU_T1a.xlsx
+++ b/Greyform-linux/Python_Application/Pin Allocation BOM for PBU_T1a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://winsystechnology-my.sharepoint.com/personal/zhizhuan_mok_winsys_com_sg/Documents/Desktop/Greyform/Python_Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{3ACD32A4-5BFF-4256-9E0C-DDA2086516B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0193399B-5B30-4AEE-B7AD-FC69227D4FC4}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="14_{82DA04B8-EEA6-4416-A749-2B9B8696FA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E3B5899-EFFE-4DD4-8052-A93974B6BC49}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D0410EE5-F139-4311-88E5-7573157F1556}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="186">
   <si>
     <t>Stage 1</t>
   </si>
@@ -582,13 +582,16 @@
     <t>Penetration/Fitting/Reference Point Name</t>
   </si>
   <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes</t>
-  </si>
-  <si>
     <t>Floor:BSS.20mm Floor Finishes (600x150mm)</t>
   </si>
   <si>
     <t>Floor:BSS.20mm Floor Finishes (600x600mm)</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm)</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.50</t>
   </si>
 </sst>
 </file>
@@ -1246,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE7395A-F4EF-492B-9DD4-523BBD7B1322}">
   <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1258,7 @@
     <col min="1" max="1" width="2.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1526,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>115</v>
@@ -1615,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>115</v>
@@ -1820,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>115</v>
@@ -2549,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>115</v>
@@ -2965,7 +2968,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>115</v>
@@ -3060,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>115</v>
@@ -3366,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>115</v>
@@ -3539,7 +3542,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>115</v>
@@ -3580,7 +3583,7 @@
         <v>7</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>115</v>
